--- a/data/trans_dic/P1423_2016_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P1423_2016_2023-Habitat-trans_dic.xlsx
@@ -618,7 +618,7 @@
         <v>0.07750260842565218</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.07388420264892737</v>
+        <v>0.07388420264892735</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.04918510406742661</v>
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01239312029543397</v>
+        <v>0.01192769075083937</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.03938683323361394</v>
+        <v>0.0372844568862464</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.05941325361756598</v>
+        <v>0.05979975337362591</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.06128224598028036</v>
+        <v>0.06066855481603604</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.03834005279835089</v>
+        <v>0.03812301888492047</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05363800076811942</v>
+        <v>0.05386142846410491</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03582375511480666</v>
+        <v>0.03500924505231831</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.07412595203814365</v>
+        <v>0.07415123462315873</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1001112929112742</v>
+        <v>0.101495582313976</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.09019061046588711</v>
+        <v>0.08985080145463956</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06313619259655391</v>
+        <v>0.06282722371727961</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07664482153807614</v>
+        <v>0.07738200321398934</v>
       </c>
     </row>
     <row r="7">
@@ -700,13 +700,13 @@
         <v>0.06169744616209909</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.07992807624062535</v>
+        <v>0.07992807624062534</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.03660084959222002</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.05898346696222786</v>
+        <v>0.05898346696222785</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.005768765097317012</v>
+        <v>0.005977351794850062</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02727720801823029</v>
+        <v>0.02647895171809273</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04755164429705332</v>
+        <v>0.04808878190560803</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.06672897381588258</v>
+        <v>0.06810056128280989</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0289699411131975</v>
+        <v>0.02890913750367396</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.05059719459115177</v>
+        <v>0.05054854748250313</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01911213424235587</v>
+        <v>0.01901553455624419</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.05235435206271822</v>
+        <v>0.05076525590323711</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.07987124652952197</v>
+        <v>0.08051350418714692</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.09395961548275432</v>
+        <v>0.09438931091356989</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.04634231430950311</v>
+        <v>0.04594790900570928</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06834424062391502</v>
+        <v>0.06848796070116553</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01581405975414629</v>
+        <v>0.01561097535733364</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03071821090014615</v>
+        <v>0.03065767890554784</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.0367452214226693</v>
+        <v>0.03573578599025912</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06517225782545158</v>
+        <v>0.06540722280001045</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02825771473460028</v>
+        <v>0.02892971592610883</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05239303308533436</v>
+        <v>0.05250317954040792</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03995764948828089</v>
+        <v>0.03865942466991754</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.06612428655715072</v>
+        <v>0.06552777416714847</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.06882782350339213</v>
+        <v>0.06705844381194384</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1005717073194263</v>
+        <v>0.1007088399972225</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.04784875799691574</v>
+        <v>0.04852017013009024</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07645700793003246</v>
+        <v>0.07770347182641352</v>
       </c>
     </row>
     <row r="13">
@@ -870,7 +870,7 @@
         <v>0.05762840658108443</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.07481927180818833</v>
+        <v>0.07481927180818834</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01779505161562075</v>
+        <v>0.01854958365604789</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.04486370588510629</v>
+        <v>0.04450183572224697</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06760032260096333</v>
+        <v>0.06789584893596168</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.07473462939825562</v>
+        <v>0.07438168049071472</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04685214497951389</v>
+        <v>0.04773258548244896</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06482779714472595</v>
+        <v>0.06489516311291008</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0392257407259755</v>
+        <v>0.04010017844352596</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.07288776974837019</v>
+        <v>0.07379839074971181</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1038223276765812</v>
+        <v>0.1036753837477058</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1040174174960389</v>
+        <v>0.1052461973772053</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06931657589165847</v>
+        <v>0.06924983114710476</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08540867743694903</v>
+        <v>0.08609527110328376</v>
       </c>
     </row>
     <row r="16">
@@ -946,13 +946,13 @@
         <v>0.06860020790708224</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.08221457216536378</v>
+        <v>0.08221457216536376</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.04521217020315022</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.06560351299113855</v>
+        <v>0.06560351299113852</v>
       </c>
     </row>
     <row r="17">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.01629192073501472</v>
+        <v>0.01634531138318632</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.04074628292079062</v>
+        <v>0.04095648008583515</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.06100156636478217</v>
+        <v>0.05979906100311071</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0742371348432935</v>
+        <v>0.07578956337253714</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.0399552933412346</v>
+        <v>0.03994830298654171</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.06051054356348379</v>
+        <v>0.06032409851558618</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02605856242463973</v>
+        <v>0.02670850107493453</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.05616623059858272</v>
+        <v>0.05593684742709937</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07832512666272341</v>
+        <v>0.07847076478627414</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.08943385355708398</v>
+        <v>0.09012148307418183</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.05060333198219224</v>
+        <v>0.05067060292882652</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.07106918517395236</v>
+        <v>0.07082913204365109</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8363</v>
+        <v>8049</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>27176</v>
+        <v>25725</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>39976</v>
+        <v>40236</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>44903</v>
+        <v>44453</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>51669</v>
+        <v>51376</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>76310</v>
+        <v>76628</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24174</v>
+        <v>23624</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>51145</v>
+        <v>51162</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>67359</v>
+        <v>68290</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>66085</v>
+        <v>65836</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>85085</v>
+        <v>84668</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>109042</v>
+        <v>110091</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5898</v>
+        <v>6111</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>28612</v>
+        <v>27774</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>49592</v>
+        <v>50152</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>71269</v>
+        <v>72734</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>59833</v>
+        <v>59707</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>107112</v>
+        <v>107009</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>19541</v>
+        <v>19442</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>54915</v>
+        <v>53249</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>83299</v>
+        <v>83969</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>100353</v>
+        <v>100812</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>95713</v>
+        <v>94898</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>144682</v>
+        <v>144986</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12012</v>
+        <v>11857</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>24547</v>
+        <v>24499</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>28845</v>
+        <v>28053</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>52891</v>
+        <v>53081</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>43646</v>
+        <v>44684</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>84388</v>
+        <v>84565</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>30350</v>
+        <v>29364</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>52841</v>
+        <v>52364</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>54031</v>
+        <v>52642</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>81619</v>
+        <v>81730</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>73905</v>
+        <v>74942</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>123146</v>
+        <v>125154</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>16684</v>
+        <v>17391</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>44392</v>
+        <v>44034</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>70560</v>
+        <v>70868</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>83526</v>
+        <v>83131</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>92830</v>
+        <v>94575</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>136600</v>
+        <v>136742</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>36777</v>
+        <v>37597</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>72121</v>
+        <v>73022</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>108368</v>
+        <v>108214</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>116253</v>
+        <v>117627</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>137340</v>
+        <v>137208</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>179966</v>
+        <v>181413</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>55300</v>
+        <v>55482</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>143732</v>
+        <v>144473</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>216223</v>
+        <v>211960</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>276900</v>
+        <v>282691</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>277245</v>
+        <v>277197</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>439151</v>
+        <v>437798</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>88452</v>
+        <v>90658</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>198125</v>
+        <v>197316</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>277627</v>
+        <v>278143</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>333583</v>
+        <v>336148</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>351131</v>
+        <v>351598</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>515779</v>
+        <v>514037</v>
       </c>
     </row>
     <row r="24">
